--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.63768</v>
+        <v>0.3347243333333333</v>
       </c>
       <c r="H2">
-        <v>1.91304</v>
+        <v>1.004173</v>
       </c>
       <c r="I2">
-        <v>0.02339172577126566</v>
+        <v>0.009010869741369597</v>
       </c>
       <c r="J2">
-        <v>0.0246633449673215</v>
+        <v>0.009185193863338879</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N2">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O2">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P2">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q2">
-        <v>0.47235019432</v>
+        <v>0.2154045923561111</v>
       </c>
       <c r="R2">
-        <v>4.25115174888</v>
+        <v>1.938641331205</v>
       </c>
       <c r="S2">
-        <v>0.002932421914166418</v>
+        <v>0.001247273328726654</v>
       </c>
       <c r="T2">
-        <v>0.003230777608491677</v>
+        <v>0.001313815580554425</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.63768</v>
+        <v>0.3347243333333333</v>
       </c>
       <c r="H3">
-        <v>1.91304</v>
+        <v>1.004173</v>
       </c>
       <c r="I3">
-        <v>0.02339172577126566</v>
+        <v>0.009010869741369597</v>
       </c>
       <c r="J3">
-        <v>0.0246633449673215</v>
+        <v>0.009185193863338879</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.241766</v>
       </c>
       <c r="O3">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P3">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q3">
-        <v>0.68906978096</v>
+        <v>0.3616993210575555</v>
       </c>
       <c r="R3">
-        <v>6.201628028640001</v>
+        <v>3.255293889518</v>
       </c>
       <c r="S3">
-        <v>0.004277850100148462</v>
+        <v>0.002094374642801477</v>
       </c>
       <c r="T3">
-        <v>0.004713094745771698</v>
+        <v>0.002206109898974454</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.63768</v>
+        <v>0.3347243333333333</v>
       </c>
       <c r="H4">
-        <v>1.91304</v>
+        <v>1.004173</v>
       </c>
       <c r="I4">
-        <v>0.02339172577126566</v>
+        <v>0.009010869741369597</v>
       </c>
       <c r="J4">
-        <v>0.0246633449673215</v>
+        <v>0.009185193863338879</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N4">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O4">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P4">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q4">
-        <v>0.90043965752</v>
+        <v>0.592723712853889</v>
       </c>
       <c r="R4">
-        <v>8.10395691768</v>
+        <v>5.334513415685</v>
       </c>
       <c r="S4">
-        <v>0.005590066471545327</v>
+        <v>0.00343209246497533</v>
       </c>
       <c r="T4">
-        <v>0.006158820972862154</v>
+        <v>0.003615195202635676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.63768</v>
+        <v>0.3347243333333333</v>
       </c>
       <c r="H5">
-        <v>1.91304</v>
+        <v>1.004173</v>
       </c>
       <c r="I5">
-        <v>0.02339172577126566</v>
+        <v>0.009010869741369597</v>
       </c>
       <c r="J5">
-        <v>0.0246633449673215</v>
+        <v>0.009185193863338879</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N5">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O5">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P5">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q5">
-        <v>0.4861302465600001</v>
+        <v>0.1507096310833334</v>
       </c>
       <c r="R5">
-        <v>2.91678147936</v>
+        <v>0.9042577865000001</v>
       </c>
       <c r="S5">
-        <v>0.003017970576266806</v>
+        <v>0.0008726652536808936</v>
       </c>
       <c r="T5">
-        <v>0.002216686876647536</v>
+        <v>0.0006128147324718982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.63768</v>
+        <v>0.3347243333333333</v>
       </c>
       <c r="H6">
-        <v>1.91304</v>
+        <v>1.004173</v>
       </c>
       <c r="I6">
-        <v>0.02339172577126566</v>
+        <v>0.009010869741369597</v>
       </c>
       <c r="J6">
-        <v>0.0246633449673215</v>
+        <v>0.009185193863338879</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N6">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O6">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P6">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q6">
-        <v>1.2199147868</v>
+        <v>0.2356434760215556</v>
       </c>
       <c r="R6">
-        <v>10.9792330812</v>
+        <v>2.120791284194</v>
       </c>
       <c r="S6">
-        <v>0.007573416709138645</v>
+        <v>0.001364464051185243</v>
       </c>
       <c r="T6">
-        <v>0.008343964763548439</v>
+        <v>0.001437258448702426</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.11522666666666</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H7">
-        <v>30.34567999999999</v>
+        <v>30.34568</v>
       </c>
       <c r="I7">
-        <v>0.3710522649304671</v>
+        <v>0.2723046424204639</v>
       </c>
       <c r="J7">
-        <v>0.391223379598936</v>
+        <v>0.2775726430752922</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N7">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O7">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P7">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q7">
-        <v>7.492675450995554</v>
+        <v>6.509434958088889</v>
       </c>
       <c r="R7">
-        <v>67.43407905895998</v>
+        <v>58.5849146228</v>
       </c>
       <c r="S7">
-        <v>0.04651566984081962</v>
+        <v>0.03769206830503693</v>
       </c>
       <c r="T7">
-        <v>0.05124834998664622</v>
+        <v>0.03970294678956594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.11522666666666</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H8">
-        <v>30.34567999999999</v>
+        <v>30.34568</v>
       </c>
       <c r="I8">
-        <v>0.3710522649304671</v>
+        <v>0.2723046424204639</v>
       </c>
       <c r="J8">
-        <v>0.391223379598936</v>
+        <v>0.2775726430752922</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>3.241766</v>
       </c>
       <c r="O8">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P8">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q8">
         <v>10.93039929676444</v>
       </c>
       <c r="R8">
-        <v>98.37359367087998</v>
+        <v>98.37359367088001</v>
       </c>
       <c r="S8">
-        <v>0.06785758281430246</v>
+        <v>0.06329110891307367</v>
       </c>
       <c r="T8">
-        <v>0.07476166988921781</v>
+        <v>0.06666770072398989</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.11522666666666</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H9">
-        <v>30.34567999999999</v>
+        <v>30.34568</v>
       </c>
       <c r="I9">
-        <v>0.3710522649304671</v>
+        <v>0.2723046424204639</v>
       </c>
       <c r="J9">
-        <v>0.391223379598936</v>
+        <v>0.2775726430752922</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N9">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O9">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P9">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q9">
-        <v>14.28326313428444</v>
+        <v>17.91185793551112</v>
       </c>
       <c r="R9">
-        <v>128.54936820856</v>
+        <v>161.2067214196</v>
       </c>
       <c r="S9">
-        <v>0.08867267193798539</v>
+        <v>0.1037163712553042</v>
       </c>
       <c r="T9">
-        <v>0.09769456489135803</v>
+        <v>0.1092496579341581</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.11522666666666</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H10">
-        <v>30.34567999999999</v>
+        <v>30.34568</v>
       </c>
       <c r="I10">
-        <v>0.3710522649304671</v>
+        <v>0.2723046424204639</v>
       </c>
       <c r="J10">
-        <v>0.391223379598936</v>
+        <v>0.2775726430752922</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N10">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O10">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P10">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q10">
-        <v>7.71126212752</v>
+        <v>4.554380806666667</v>
       </c>
       <c r="R10">
-        <v>46.26757276511999</v>
+        <v>27.32628484</v>
       </c>
       <c r="S10">
-        <v>0.04787268920503913</v>
+        <v>0.02637157196550716</v>
       </c>
       <c r="T10">
-        <v>0.03516229175497929</v>
+        <v>0.01851899998394483</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.11522666666666</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H11">
-        <v>30.34567999999999</v>
+        <v>30.34568</v>
       </c>
       <c r="I11">
-        <v>0.3710522649304671</v>
+        <v>0.2723046424204639</v>
       </c>
       <c r="J11">
-        <v>0.391223379598936</v>
+        <v>0.2775726430752922</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N11">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O11">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P11">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q11">
-        <v>19.35095123337777</v>
+        <v>7.121045395004445</v>
       </c>
       <c r="R11">
-        <v>174.1585611004</v>
+        <v>64.08940855504001</v>
       </c>
       <c r="S11">
-        <v>0.1201336511323205</v>
+        <v>0.04123352198154201</v>
       </c>
       <c r="T11">
-        <v>0.1323565030767347</v>
+        <v>0.04343333764363336</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.144978333333333</v>
+        <v>19.79677166666667</v>
       </c>
       <c r="H12">
-        <v>27.434935</v>
+        <v>59.390315</v>
       </c>
       <c r="I12">
-        <v>0.3354610860580532</v>
+        <v>0.532934456875368</v>
       </c>
       <c r="J12">
-        <v>0.3536973957999009</v>
+        <v>0.5432445971757486</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N12">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O12">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P12">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q12">
-        <v>6.773981139132777</v>
+        <v>12.73978347603056</v>
       </c>
       <c r="R12">
-        <v>60.965830252195</v>
+        <v>114.658051284275</v>
       </c>
       <c r="S12">
-        <v>0.04205390614296159</v>
+        <v>0.07376812151310036</v>
       </c>
       <c r="T12">
-        <v>0.04633262957827573</v>
+        <v>0.07770366379203102</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.144978333333333</v>
+        <v>19.79677166666667</v>
       </c>
       <c r="H13">
-        <v>27.434935</v>
+        <v>59.390315</v>
       </c>
       <c r="I13">
-        <v>0.3354610860580532</v>
+        <v>0.532934456875368</v>
       </c>
       <c r="J13">
-        <v>0.3536973957999009</v>
+        <v>0.5432445971757486</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.241766</v>
       </c>
       <c r="O13">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P13">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q13">
-        <v>9.881959943912221</v>
+        <v>21.39216709958778</v>
       </c>
       <c r="R13">
-        <v>88.93763949521001</v>
+        <v>192.52950389629</v>
       </c>
       <c r="S13">
-        <v>0.06134871170352765</v>
+        <v>0.123868665821519</v>
       </c>
       <c r="T13">
-        <v>0.06759056161872623</v>
+        <v>0.1304770809658405</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.144978333333333</v>
+        <v>19.79677166666667</v>
       </c>
       <c r="H14">
-        <v>27.434935</v>
+        <v>59.390315</v>
       </c>
       <c r="I14">
-        <v>0.3354610860580532</v>
+        <v>0.532934456875368</v>
       </c>
       <c r="J14">
-        <v>0.3536973957999009</v>
+        <v>0.5432445971757486</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N14">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O14">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P14">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q14">
-        <v>12.91321847712722</v>
+        <v>35.05576032651945</v>
       </c>
       <c r="R14">
-        <v>116.218966294145</v>
+        <v>315.5018429386751</v>
       </c>
       <c r="S14">
-        <v>0.08016722613877671</v>
+        <v>0.2029859920591485</v>
       </c>
       <c r="T14">
-        <v>0.08832374287370361</v>
+        <v>0.2138153304968582</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.144978333333333</v>
+        <v>19.79677166666667</v>
       </c>
       <c r="H15">
-        <v>27.434935</v>
+        <v>59.390315</v>
       </c>
       <c r="I15">
-        <v>0.3354610860580532</v>
+        <v>0.532934456875368</v>
       </c>
       <c r="J15">
-        <v>0.3536973957999009</v>
+        <v>0.5432445971757486</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N15">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O15">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P15">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q15">
-        <v>6.97160107259</v>
+        <v>8.913496442916669</v>
       </c>
       <c r="R15">
-        <v>41.82960643554</v>
+        <v>53.4809786575</v>
       </c>
       <c r="S15">
-        <v>0.04328076077436559</v>
+        <v>0.05161248540407199</v>
       </c>
       <c r="T15">
-        <v>0.03178953935943742</v>
+        <v>0.03624401372885624</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.144978333333333</v>
+        <v>19.79677166666667</v>
       </c>
       <c r="H16">
-        <v>27.434935</v>
+        <v>59.390315</v>
       </c>
       <c r="I16">
-        <v>0.3354610860580532</v>
+        <v>0.532934456875368</v>
       </c>
       <c r="J16">
-        <v>0.3536973957999009</v>
+        <v>0.5432445971757486</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N16">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O16">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P16">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q16">
-        <v>17.49481604221389</v>
+        <v>13.93678207700778</v>
       </c>
       <c r="R16">
-        <v>157.453344379925</v>
+        <v>125.43103869307</v>
       </c>
       <c r="S16">
-        <v>0.1086104812984217</v>
+        <v>0.08069919207752815</v>
       </c>
       <c r="T16">
-        <v>0.1196609223697579</v>
+        <v>0.08500450819216253</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.2166435</v>
+        <v>2.115003</v>
       </c>
       <c r="H17">
-        <v>8.433287</v>
+        <v>4.230005999999999</v>
       </c>
       <c r="I17">
-        <v>0.1546772180830351</v>
+        <v>0.05693645378517223</v>
       </c>
       <c r="J17">
-        <v>0.108723846071921</v>
+        <v>0.03869196358902961</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N17">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O17">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P17">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q17">
-        <v>3.123404178589833</v>
+        <v>1.361064355585</v>
       </c>
       <c r="R17">
-        <v>18.740425071539</v>
+        <v>8.166386133509999</v>
       </c>
       <c r="S17">
-        <v>0.01939056862944954</v>
+        <v>0.007881072779521632</v>
       </c>
       <c r="T17">
-        <v>0.01424229227072301</v>
+        <v>0.005534352933845761</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.2166435</v>
+        <v>2.115003</v>
       </c>
       <c r="H18">
-        <v>8.433287</v>
+        <v>4.230005999999999</v>
       </c>
       <c r="I18">
-        <v>0.1546772180830351</v>
+        <v>0.05693645378517223</v>
       </c>
       <c r="J18">
-        <v>0.108723846071921</v>
+        <v>0.03869196358902961</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.241766</v>
       </c>
       <c r="O18">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P18">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q18">
-        <v>4.556457177473667</v>
+        <v>2.285448271766</v>
       </c>
       <c r="R18">
-        <v>27.338743064842</v>
+        <v>13.712689630596</v>
       </c>
       <c r="S18">
-        <v>0.02828717980611806</v>
+        <v>0.01323360213623266</v>
       </c>
       <c r="T18">
-        <v>0.02077681629724666</v>
+        <v>0.009293078094433263</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.2166435</v>
+        <v>2.115003</v>
       </c>
       <c r="H19">
-        <v>8.433287</v>
+        <v>4.230005999999999</v>
       </c>
       <c r="I19">
-        <v>0.1546772180830351</v>
+        <v>0.05693645378517223</v>
       </c>
       <c r="J19">
-        <v>0.108723846071921</v>
+        <v>0.03869196358902961</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N19">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O19">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P19">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q19">
-        <v>5.954135348488166</v>
+        <v>3.745208537345</v>
       </c>
       <c r="R19">
-        <v>35.724812090929</v>
+        <v>22.47125122407</v>
       </c>
       <c r="S19">
-        <v>0.03696417866611708</v>
+        <v>0.02168616122829497</v>
       </c>
       <c r="T19">
-        <v>0.0271500359876248</v>
+        <v>0.01522874783361047</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.2166435</v>
+        <v>2.115003</v>
       </c>
       <c r="H20">
-        <v>8.433287</v>
+        <v>4.230005999999999</v>
       </c>
       <c r="I20">
-        <v>0.1546772180830351</v>
+        <v>0.05693645378517223</v>
       </c>
       <c r="J20">
-        <v>0.108723846071921</v>
+        <v>0.03869196358902961</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N20">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O20">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P20">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q20">
-        <v>3.214524439077</v>
+        <v>0.9522801007499999</v>
       </c>
       <c r="R20">
-        <v>12.858097756308</v>
+        <v>3.809120403</v>
       </c>
       <c r="S20">
-        <v>0.0199562570781688</v>
+        <v>0.005514058721547534</v>
       </c>
       <c r="T20">
-        <v>0.009771858727419326</v>
+        <v>0.002581437655906426</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.2166435</v>
+        <v>2.115003</v>
       </c>
       <c r="H21">
-        <v>8.433287</v>
+        <v>4.230005999999999</v>
       </c>
       <c r="I21">
-        <v>0.1546772180830351</v>
+        <v>0.05693645378517223</v>
       </c>
       <c r="J21">
-        <v>0.108723846071921</v>
+        <v>0.03869196358902961</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N21">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O21">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P21">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q21">
-        <v>8.066656875414168</v>
+        <v>1.488946601978</v>
       </c>
       <c r="R21">
-        <v>48.399941252485</v>
+        <v>8.933679611868</v>
       </c>
       <c r="S21">
-        <v>0.05007903390318162</v>
+        <v>0.008621558919575435</v>
       </c>
       <c r="T21">
-        <v>0.03678284278890725</v>
+        <v>0.006054347071233696</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.146393</v>
+        <v>4.785003</v>
       </c>
       <c r="H22">
-        <v>9.439178999999999</v>
+        <v>14.355009</v>
       </c>
       <c r="I22">
-        <v>0.1154177051571789</v>
+        <v>0.128813577177626</v>
       </c>
       <c r="J22">
-        <v>0.1216920335619207</v>
+        <v>0.1313056022965907</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N22">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O22">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P22">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q22">
-        <v>2.330635028473667</v>
+        <v>3.079285005585</v>
       </c>
       <c r="R22">
-        <v>20.975715256263</v>
+        <v>27.713565050265</v>
       </c>
       <c r="S22">
-        <v>0.01446893705899482</v>
+        <v>0.01783021437474526</v>
       </c>
       <c r="T22">
-        <v>0.0159410614287965</v>
+        <v>0.01878145945290203</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.146393</v>
+        <v>4.785003</v>
       </c>
       <c r="H23">
-        <v>9.439178999999999</v>
+        <v>14.355009</v>
       </c>
       <c r="I23">
-        <v>0.1154177051571789</v>
+        <v>0.128813577177626</v>
       </c>
       <c r="J23">
-        <v>0.1216920335619207</v>
+        <v>0.1313056022965907</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.241766</v>
       </c>
       <c r="O23">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P23">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q23">
-        <v>3.399956616679333</v>
+        <v>5.170620011765999</v>
       </c>
       <c r="R23">
-        <v>30.599609550114</v>
+        <v>46.535580105894</v>
       </c>
       <c r="S23">
-        <v>0.02110744826583305</v>
+        <v>0.02993982794477345</v>
       </c>
       <c r="T23">
-        <v>0.02325499986895127</v>
+        <v>0.03153712304032012</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.146393</v>
+        <v>4.785003</v>
       </c>
       <c r="H24">
-        <v>9.439178999999999</v>
+        <v>14.355009</v>
       </c>
       <c r="I24">
-        <v>0.1154177051571789</v>
+        <v>0.128813577177626</v>
       </c>
       <c r="J24">
-        <v>0.1216920335619207</v>
+        <v>0.1313056022965907</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N24">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O24">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P24">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q24">
-        <v>4.442882065210333</v>
+        <v>8.473195587345</v>
       </c>
       <c r="R24">
-        <v>39.985938586893</v>
+        <v>76.258760286105</v>
       </c>
       <c r="S24">
-        <v>0.0275820882191772</v>
+        <v>0.04906297841462879</v>
       </c>
       <c r="T24">
-        <v>0.03038839417461214</v>
+        <v>0.05168049695679126</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.146393</v>
+        <v>4.785003</v>
       </c>
       <c r="H25">
-        <v>9.439178999999999</v>
+        <v>14.355009</v>
       </c>
       <c r="I25">
-        <v>0.1154177051571789</v>
+        <v>0.128813577177626</v>
       </c>
       <c r="J25">
-        <v>0.1216920335619207</v>
+        <v>0.1313056022965907</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N25">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O25">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P25">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q25">
-        <v>2.398627532406</v>
+        <v>2.15444760075</v>
       </c>
       <c r="R25">
-        <v>14.391765194436</v>
+        <v>12.9266856045</v>
       </c>
       <c r="S25">
-        <v>0.01489104487418744</v>
+        <v>0.01247505914874878</v>
       </c>
       <c r="T25">
-        <v>0.01093741072618816</v>
+        <v>0.008760403834764218</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.146393</v>
+        <v>4.785003</v>
       </c>
       <c r="H26">
-        <v>9.439178999999999</v>
+        <v>14.355009</v>
       </c>
       <c r="I26">
-        <v>0.1154177051571789</v>
+        <v>0.128813577177626</v>
       </c>
       <c r="J26">
-        <v>0.1216920335619207</v>
+        <v>0.1313056022965907</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N26">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O26">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P26">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q26">
-        <v>6.019212372638333</v>
+        <v>3.368607021978</v>
       </c>
       <c r="R26">
-        <v>54.172911353745</v>
+        <v>30.317463197802</v>
       </c>
       <c r="S26">
-        <v>0.03736818673898643</v>
+        <v>0.01950549729472971</v>
       </c>
       <c r="T26">
-        <v>0.04117016736337263</v>
+        <v>0.02054611901181307</v>
       </c>
     </row>
   </sheetData>
